--- a/Datenstrukturen und Algorithmen/Übungsserie 6/Auswertung.xlsx
+++ b/Datenstrukturen und Algorithmen/Übungsserie 6/Auswertung.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alana\myCloud\UNIBE\Informatik\Datenstrukturen und Algorithmen\Git_mit_Sandro\Unistuff\Datenstrukturen und Algorithmen\Übungsserie 6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65732A5-21C7-45D3-A3BA-B768B30ED811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>m=10/n</t>
+  </si>
+  <si>
+    <t>m=20/n</t>
+  </si>
+  <si>
+    <t>m=40/n</t>
+  </si>
+  <si>
+    <t>m=80/n</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +353,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>1500</v>
+      </c>
+      <c r="G2">
+        <v>2500</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>250</v>
+      </c>
+      <c r="L2">
+        <v>500</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>1500</v>
+      </c>
+      <c r="O2">
+        <v>2500</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <v>250</v>
+      </c>
+      <c r="T2">
+        <v>500</v>
+      </c>
+      <c r="U2">
+        <v>100</v>
+      </c>
+      <c r="V2">
+        <v>1500</v>
+      </c>
+      <c r="W2">
+        <v>2500</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+      <c r="AA2">
+        <v>250</v>
+      </c>
+      <c r="AB2">
+        <v>500</v>
+      </c>
+      <c r="AC2">
+        <v>100</v>
+      </c>
+      <c r="AD2">
+        <v>1500</v>
+      </c>
+      <c r="AE2">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datenstrukturen und Algorithmen/Übungsserie 6/Auswertung.xlsx
+++ b/Datenstrukturen und Algorithmen/Übungsserie 6/Auswertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alana\myCloud\UNIBE\Informatik\Datenstrukturen und Algorithmen\Git_mit_Sandro\Unistuff\Datenstrukturen und Algorithmen\Übungsserie 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65732A5-21C7-45D3-A3BA-B768B30ED811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41579F-A481-4EED-9C2D-CEFA2DF4C47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,13 +30,13 @@
     <t>m=10/n</t>
   </si>
   <si>
-    <t>m=20/n</t>
+    <t>m=500/n</t>
   </si>
   <si>
-    <t>m=40/n</t>
+    <t>m=250/n</t>
   </si>
   <si>
-    <t>m=80/n</t>
+    <t>m=100/n</t>
   </si>
 </sst>
 </file>
@@ -356,8 +356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -385,7 +385,7 @@
         <v>2500</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -427,7 +427,7 @@
         <v>2500</v>
       </c>
       <c r="Y2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>100</v>

--- a/Datenstrukturen und Algorithmen/Übungsserie 6/Auswertung.xlsx
+++ b/Datenstrukturen und Algorithmen/Übungsserie 6/Auswertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alana\myCloud\UNIBE\Informatik\Datenstrukturen und Algorithmen\Git_mit_Sandro\Unistuff\Datenstrukturen und Algorithmen\Übungsserie 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F4C18-D2E2-4CB9-AEC4-376B0DE623A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F1DF87-42F8-4B12-A7DF-583B8D2980B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,6 +559,7 @@
         <c:axId val="773549632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -671,11 +672,13 @@
         <c:crossAx val="773542976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="773542976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1735,7 +1738,7 @@
   <dimension ref="A2:AE1631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E102" zoomScale="154" workbookViewId="0">
-      <selection activeCell="R110" sqref="R110"/>
+      <selection activeCell="Q118" sqref="Q118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
